--- a/data/biolog_results/plate_readout_categorizations_test.xlsx
+++ b/data/biolog_results/plate_readout_categorizations_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Biomedicine\lmurinus_gem\data\biolog_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F371363F-BBFC-45F7-93BD-94E2DA52C40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870B09E9-D610-4C65-BF38-6B2E0ED1E126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{20CE4D18-2B3B-4AED-9EDB-990B5DA742DE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{20CE4D18-2B3B-4AED-9EDB-990B5DA742DE}"/>
   </bookViews>
   <sheets>
     <sheet name="BIOLOG" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9995" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9996" uniqueCount="222">
   <si>
     <t>A01</t>
   </si>
@@ -701,6 +701,9 @@
   <si>
     <t>23-50</t>
   </si>
+  <si>
+    <t>Essential</t>
+  </si>
 </sst>
 </file>
 
@@ -804,42 +807,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="107">
     <dxf>
       <fill>
         <patternFill>
@@ -2908,111 +2876,111 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF6524E8-AE2A-436D-B29C-D8C08AD40FD8}" name="Table1" displayName="Table1" ref="A1:CU101" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" tableBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF6524E8-AE2A-436D-B29C-D8C08AD40FD8}" name="Table1" displayName="Table1" ref="A1:CU101" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105" tableBorderDxfId="104">
   <autoFilter ref="A1:CU101" xr:uid="{DF6524E8-AE2A-436D-B29C-D8C08AD40FD8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CU100">
     <sortCondition ref="A1:A100"/>
   </sortState>
   <tableColumns count="99">
-    <tableColumn id="1" xr3:uid="{54BFA7A6-1AD5-4C05-8303-5F6AC1E991C1}" name="Sample #" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{F9D4AA17-E69B-4702-A907-C57DD15CBA08}" name="Hours" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{B6A9F5B6-95BF-41E0-A2FB-B1E774871216}" name="Plate #" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{F1D9AFB1-0650-4307-B1D2-19EA6CA1A1F2}" name="A01" dataDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{DB36C49A-E9BD-459E-A368-75D91002AD3F}" name="A02" dataDxfId="104"/>
-    <tableColumn id="6" xr3:uid="{F2AF8B95-F4AA-41F0-AE54-82CB6D04B500}" name="A03" dataDxfId="103"/>
-    <tableColumn id="7" xr3:uid="{BF387896-1E0A-4BB9-953F-33F0370249F7}" name="A04" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{461E6227-EC39-431B-848D-DA07E4F30368}" name="A05" dataDxfId="101"/>
-    <tableColumn id="9" xr3:uid="{C2B8FF6F-0856-4B24-A28B-14DCD73A945F}" name="A06" dataDxfId="100"/>
-    <tableColumn id="10" xr3:uid="{CEECEBB8-A7F7-46E7-A65F-FFE7D82B5128}" name="A07" dataDxfId="99"/>
-    <tableColumn id="11" xr3:uid="{0489683B-A423-4FC8-988E-1B27798CE71A}" name="A08" dataDxfId="98"/>
-    <tableColumn id="12" xr3:uid="{8241FA1E-1BCE-4792-849E-B2C354AEA410}" name="A09" dataDxfId="97"/>
-    <tableColumn id="13" xr3:uid="{AC7E04C0-B29C-4849-B008-AAC630B01FCD}" name="A10" dataDxfId="96"/>
-    <tableColumn id="14" xr3:uid="{F20728CB-3519-4FFF-B90A-4EC864F19180}" name="A11" dataDxfId="95"/>
-    <tableColumn id="15" xr3:uid="{27ED7572-C67E-4D28-8C24-DC8258701B36}" name="A12" dataDxfId="94"/>
-    <tableColumn id="16" xr3:uid="{1300DA0D-CE5D-4EAF-9269-E964300DF37C}" name="B01" dataDxfId="93"/>
-    <tableColumn id="17" xr3:uid="{97E71C5C-7956-4CF4-9FBC-36537F347678}" name="B02" dataDxfId="92"/>
-    <tableColumn id="18" xr3:uid="{9FA30CC9-70DA-4803-A373-AFDE76B1854C}" name="B03" dataDxfId="91"/>
-    <tableColumn id="19" xr3:uid="{559D05B2-FA09-4A62-9D82-17A515FF8386}" name="B04" dataDxfId="90"/>
-    <tableColumn id="20" xr3:uid="{17C39991-9977-4A3B-A88F-341B0E6995E9}" name="B05" dataDxfId="89"/>
-    <tableColumn id="21" xr3:uid="{C7AE312B-FC5D-4850-8B51-A03744FD8457}" name="B06" dataDxfId="88"/>
-    <tableColumn id="22" xr3:uid="{CCEFE2E1-662B-4247-B2C5-92E7EAFE89AC}" name="B07" dataDxfId="87"/>
-    <tableColumn id="23" xr3:uid="{1AF13133-AF64-4DAB-9F92-2DB5C3D9B317}" name="B08" dataDxfId="86"/>
-    <tableColumn id="24" xr3:uid="{34803E89-536F-48DD-BF71-524D02C0A0F5}" name="B09" dataDxfId="85"/>
-    <tableColumn id="25" xr3:uid="{97BEBB3D-723A-4430-A691-D6028A84AEA2}" name="B10" dataDxfId="84"/>
-    <tableColumn id="26" xr3:uid="{BBDB8FBF-2EBF-4185-B883-FAAA64967E18}" name="B11" dataDxfId="83"/>
-    <tableColumn id="27" xr3:uid="{5D5D851C-758D-4F5F-89C9-56DAD98C4F7F}" name="B12" dataDxfId="82"/>
-    <tableColumn id="28" xr3:uid="{855E9401-D5B0-49EC-B604-2BAA4E915B06}" name="C01" dataDxfId="81"/>
-    <tableColumn id="29" xr3:uid="{2C06F68C-8E92-465B-8C0D-BD3FCC917246}" name="C02" dataDxfId="80"/>
-    <tableColumn id="30" xr3:uid="{0FEDCD71-53EC-457A-9EC7-A83687D13362}" name="C03" dataDxfId="79"/>
-    <tableColumn id="31" xr3:uid="{0AEF8E97-667D-4579-A22C-D242B9DEC63F}" name="C04" dataDxfId="78"/>
-    <tableColumn id="32" xr3:uid="{F717C37D-8658-4BF9-95EE-91F2B7C13517}" name="C05" dataDxfId="77"/>
-    <tableColumn id="33" xr3:uid="{53808A78-E50E-4369-8212-86653B85794A}" name="C06" dataDxfId="76"/>
-    <tableColumn id="34" xr3:uid="{D28BE9E5-B112-4F27-95D9-CDF246691B3B}" name="C07" dataDxfId="75"/>
-    <tableColumn id="35" xr3:uid="{06886B9E-16BA-4354-9010-C7F2BB982880}" name="C08" dataDxfId="74"/>
-    <tableColumn id="36" xr3:uid="{F4D91C0C-C95E-41F0-AD06-8A044542A6B9}" name="C09" dataDxfId="73"/>
-    <tableColumn id="37" xr3:uid="{6946452B-116E-49A3-8EFB-F2277DEC7E84}" name="C10" dataDxfId="72"/>
-    <tableColumn id="38" xr3:uid="{111421C4-8100-4B4A-95A8-0F034F008129}" name="C11" dataDxfId="71"/>
-    <tableColumn id="39" xr3:uid="{48B69830-4D09-464F-B684-9185B86EA03D}" name="C12" dataDxfId="70"/>
-    <tableColumn id="40" xr3:uid="{C14BD90B-639C-497E-A017-DC1554415477}" name="D01" dataDxfId="69"/>
-    <tableColumn id="41" xr3:uid="{B771E09C-F5C2-4D1C-AE73-02B84B662775}" name="D02" dataDxfId="68"/>
-    <tableColumn id="42" xr3:uid="{BA75CA0D-11D9-4247-92F6-B0AB3CD565DB}" name="D03" dataDxfId="67"/>
-    <tableColumn id="43" xr3:uid="{AD457E02-66FC-4019-8DA9-CF7F77A4F7F2}" name="D04" dataDxfId="66"/>
-    <tableColumn id="44" xr3:uid="{00D778A5-3604-4A38-B067-68C88488B1A6}" name="D05" dataDxfId="65"/>
-    <tableColumn id="45" xr3:uid="{142F96AE-DF21-491E-A5C2-118DC5DE2D20}" name="D06" dataDxfId="64"/>
-    <tableColumn id="46" xr3:uid="{962FA5C7-777D-4265-9CA0-D663AA252DA5}" name="D07" dataDxfId="63"/>
-    <tableColumn id="47" xr3:uid="{600A84BA-09A0-4267-ADAE-9FE571183982}" name="D08" dataDxfId="62"/>
-    <tableColumn id="48" xr3:uid="{2B34D4E6-9CF6-414B-A9A5-65111FB06D18}" name="D09" dataDxfId="61"/>
-    <tableColumn id="49" xr3:uid="{63DB5FFC-BEC8-4713-8E2F-4C00687A713E}" name="D10" dataDxfId="60"/>
-    <tableColumn id="50" xr3:uid="{E08893A0-E42B-4508-B7F2-84D63A3E5178}" name="D11" dataDxfId="59"/>
-    <tableColumn id="51" xr3:uid="{523BA122-F027-41E9-8E79-313122A53424}" name="D12" dataDxfId="58"/>
-    <tableColumn id="52" xr3:uid="{E73E24C2-5A14-4834-ADC2-0A0137337339}" name="E01" dataDxfId="57"/>
-    <tableColumn id="53" xr3:uid="{DF5CBE87-C093-47C1-A4C1-6B3FC7787FF0}" name="E02" dataDxfId="56"/>
-    <tableColumn id="54" xr3:uid="{8F8FE0D2-59D9-4D6F-B836-83BBFF5D049F}" name="E03" dataDxfId="55"/>
-    <tableColumn id="55" xr3:uid="{68A62D9C-8D1B-4CBB-87B6-8609A9B7F675}" name="E04" dataDxfId="54"/>
-    <tableColumn id="56" xr3:uid="{77017F15-7086-4E21-BE82-DAD738E3EDB8}" name="E05" dataDxfId="53"/>
-    <tableColumn id="57" xr3:uid="{69A94C60-5141-4EDC-999D-9D6F4D4D323D}" name="E06" dataDxfId="52"/>
-    <tableColumn id="58" xr3:uid="{6E223BDD-27E2-4205-81DF-FB459C033CC9}" name="E07" dataDxfId="51"/>
-    <tableColumn id="59" xr3:uid="{C8C36847-88F5-4B05-BC7F-9F62C99744DA}" name="E08" dataDxfId="50"/>
-    <tableColumn id="60" xr3:uid="{DAB25BDD-2CB6-492D-9D05-5223679467E1}" name="E09" dataDxfId="49"/>
-    <tableColumn id="61" xr3:uid="{A85450F2-36AB-4AE8-BF04-85A11FF57698}" name="E10" dataDxfId="48"/>
-    <tableColumn id="62" xr3:uid="{B859AEF1-B0D9-435E-A306-0F9BD07DFE2E}" name="E11" dataDxfId="47"/>
-    <tableColumn id="63" xr3:uid="{9293027F-6291-42B2-9245-BDACD6466EA3}" name="E12" dataDxfId="46"/>
-    <tableColumn id="64" xr3:uid="{36E43C51-9555-4B10-9820-6A5B6B6DB197}" name="F01" dataDxfId="45"/>
-    <tableColumn id="65" xr3:uid="{0BD7BBDC-5345-40F9-9F90-90D421D7E255}" name="F02" dataDxfId="44"/>
-    <tableColumn id="66" xr3:uid="{D5A7F548-0D92-41C5-8B5C-CAE5F73AAF4E}" name="F03" dataDxfId="43"/>
-    <tableColumn id="67" xr3:uid="{75AB6D10-0680-4750-8506-C3A7C919F49F}" name="F04" dataDxfId="42"/>
-    <tableColumn id="68" xr3:uid="{6476C967-C179-4D47-BE07-EC7C0B7FDC51}" name="F05" dataDxfId="41"/>
-    <tableColumn id="69" xr3:uid="{12EFBC6A-0D7F-478C-B2EF-B019EE391CC4}" name="F06" dataDxfId="40"/>
-    <tableColumn id="70" xr3:uid="{802F16AA-EE99-44EC-A53F-BB8CA04095FD}" name="F07" dataDxfId="39"/>
-    <tableColumn id="71" xr3:uid="{5D1C41E7-D0B9-4ECB-B0F8-C7F564A4BF38}" name="F08" dataDxfId="38"/>
-    <tableColumn id="72" xr3:uid="{8A6A84E1-69FD-4715-802E-BE363778AEF4}" name="F09" dataDxfId="37"/>
-    <tableColumn id="73" xr3:uid="{90A548FD-47F4-49F7-806C-B06F291EBDC7}" name="F10" dataDxfId="36"/>
-    <tableColumn id="74" xr3:uid="{6F222FE8-3763-43FF-97F5-6F74FE71F826}" name="F11" dataDxfId="35"/>
-    <tableColumn id="75" xr3:uid="{C7CA0C4C-74F2-4AF3-AA9D-FDF70C0CF701}" name="F12" dataDxfId="34"/>
-    <tableColumn id="76" xr3:uid="{977267DD-0E79-4B78-81CC-1AB0A9201B19}" name="G01" dataDxfId="33"/>
-    <tableColumn id="77" xr3:uid="{5C550A1B-07AB-49FE-8EE6-9F0CC0300B4F}" name="G02" dataDxfId="32"/>
-    <tableColumn id="78" xr3:uid="{0B3475F2-6969-4BBA-ADF7-3A462DD16531}" name="G03" dataDxfId="31"/>
-    <tableColumn id="79" xr3:uid="{52F74A77-206D-4151-95F0-DA8042FFC96D}" name="G04" dataDxfId="30"/>
-    <tableColumn id="80" xr3:uid="{DDDDA68E-D286-4105-BB85-0B672AC68D58}" name="G05" dataDxfId="29"/>
-    <tableColumn id="81" xr3:uid="{1634B491-30E5-4847-AC0E-06FD15EE2DB1}" name="G06" dataDxfId="28"/>
-    <tableColumn id="82" xr3:uid="{12BF715F-2726-45D3-9B53-18061C649C9D}" name="G07" dataDxfId="27"/>
-    <tableColumn id="83" xr3:uid="{964B056B-3AAB-4251-B9E1-1F63E8E479CF}" name="G08" dataDxfId="26"/>
-    <tableColumn id="84" xr3:uid="{7400CE90-13CC-4A6C-9EFA-9773A303F29C}" name="G09" dataDxfId="25"/>
-    <tableColumn id="85" xr3:uid="{DDB6D751-3E5D-4214-AA8B-CF090836166A}" name="G10" dataDxfId="24"/>
-    <tableColumn id="86" xr3:uid="{AB8FA483-8F5A-42E5-B0F5-6CF2803888E0}" name="G11" dataDxfId="23"/>
-    <tableColumn id="87" xr3:uid="{E98DE225-678B-45D6-BFCD-0622975689CC}" name="G12" dataDxfId="22"/>
-    <tableColumn id="88" xr3:uid="{6A9713F1-DF28-4AAB-8E62-3A1F5A19A5C6}" name="H01" dataDxfId="21"/>
-    <tableColumn id="89" xr3:uid="{8005973D-7F15-4FE1-8854-99E53948A66E}" name="H02" dataDxfId="20"/>
-    <tableColumn id="90" xr3:uid="{ABCC8A10-D7E9-4882-B6ED-10B83BB6028A}" name="H03" dataDxfId="19"/>
-    <tableColumn id="91" xr3:uid="{DC2E85BE-2645-4C14-83D2-6EC54FBED17A}" name="H04" dataDxfId="18"/>
-    <tableColumn id="92" xr3:uid="{E09985EE-EE29-4B4F-AB8B-05DA5D382F15}" name="H05" dataDxfId="17"/>
-    <tableColumn id="93" xr3:uid="{1C8CBA69-9D59-4F56-BFEA-D7B8116EF0BC}" name="H06" dataDxfId="16"/>
-    <tableColumn id="94" xr3:uid="{7CD68F08-795E-4EDE-8B4B-AB7E48A6C839}" name="H07" dataDxfId="15"/>
-    <tableColumn id="95" xr3:uid="{620929EC-171F-4A3B-8368-04FAAA6B453B}" name="H08" dataDxfId="14"/>
-    <tableColumn id="96" xr3:uid="{C0F7A100-255A-4C90-9A98-6345F21AE497}" name="H09" dataDxfId="13"/>
-    <tableColumn id="97" xr3:uid="{F5EA022B-9BE1-479B-9388-AD7F3C81E21A}" name="H10" dataDxfId="12"/>
-    <tableColumn id="98" xr3:uid="{57D71454-B722-4BF7-B257-0379C5FDA5A3}" name="H11" dataDxfId="11"/>
-    <tableColumn id="99" xr3:uid="{0E238DD1-5C48-4D20-BAEF-A8407209C58D}" name="H12" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{54BFA7A6-1AD5-4C05-8303-5F6AC1E991C1}" name="Sample #" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{F9D4AA17-E69B-4702-A907-C57DD15CBA08}" name="Hours" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{B6A9F5B6-95BF-41E0-A2FB-B1E774871216}" name="Plate #" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{F1D9AFB1-0650-4307-B1D2-19EA6CA1A1F2}" name="A01" dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{DB36C49A-E9BD-459E-A368-75D91002AD3F}" name="A02" dataDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{F2AF8B95-F4AA-41F0-AE54-82CB6D04B500}" name="A03" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{BF387896-1E0A-4BB9-953F-33F0370249F7}" name="A04" dataDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{461E6227-EC39-431B-848D-DA07E4F30368}" name="A05" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{C2B8FF6F-0856-4B24-A28B-14DCD73A945F}" name="A06" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{CEECEBB8-A7F7-46E7-A65F-FFE7D82B5128}" name="A07" dataDxfId="94"/>
+    <tableColumn id="11" xr3:uid="{0489683B-A423-4FC8-988E-1B27798CE71A}" name="A08" dataDxfId="93"/>
+    <tableColumn id="12" xr3:uid="{8241FA1E-1BCE-4792-849E-B2C354AEA410}" name="A09" dataDxfId="92"/>
+    <tableColumn id="13" xr3:uid="{AC7E04C0-B29C-4849-B008-AAC630B01FCD}" name="A10" dataDxfId="91"/>
+    <tableColumn id="14" xr3:uid="{F20728CB-3519-4FFF-B90A-4EC864F19180}" name="A11" dataDxfId="90"/>
+    <tableColumn id="15" xr3:uid="{27ED7572-C67E-4D28-8C24-DC8258701B36}" name="A12" dataDxfId="89"/>
+    <tableColumn id="16" xr3:uid="{1300DA0D-CE5D-4EAF-9269-E964300DF37C}" name="B01" dataDxfId="88"/>
+    <tableColumn id="17" xr3:uid="{97E71C5C-7956-4CF4-9FBC-36537F347678}" name="B02" dataDxfId="87"/>
+    <tableColumn id="18" xr3:uid="{9FA30CC9-70DA-4803-A373-AFDE76B1854C}" name="B03" dataDxfId="86"/>
+    <tableColumn id="19" xr3:uid="{559D05B2-FA09-4A62-9D82-17A515FF8386}" name="B04" dataDxfId="85"/>
+    <tableColumn id="20" xr3:uid="{17C39991-9977-4A3B-A88F-341B0E6995E9}" name="B05" dataDxfId="84"/>
+    <tableColumn id="21" xr3:uid="{C7AE312B-FC5D-4850-8B51-A03744FD8457}" name="B06" dataDxfId="83"/>
+    <tableColumn id="22" xr3:uid="{CCEFE2E1-662B-4247-B2C5-92E7EAFE89AC}" name="B07" dataDxfId="82"/>
+    <tableColumn id="23" xr3:uid="{1AF13133-AF64-4DAB-9F92-2DB5C3D9B317}" name="B08" dataDxfId="81"/>
+    <tableColumn id="24" xr3:uid="{34803E89-536F-48DD-BF71-524D02C0A0F5}" name="B09" dataDxfId="80"/>
+    <tableColumn id="25" xr3:uid="{97BEBB3D-723A-4430-A691-D6028A84AEA2}" name="B10" dataDxfId="79"/>
+    <tableColumn id="26" xr3:uid="{BBDB8FBF-2EBF-4185-B883-FAAA64967E18}" name="B11" dataDxfId="78"/>
+    <tableColumn id="27" xr3:uid="{5D5D851C-758D-4F5F-89C9-56DAD98C4F7F}" name="B12" dataDxfId="77"/>
+    <tableColumn id="28" xr3:uid="{855E9401-D5B0-49EC-B604-2BAA4E915B06}" name="C01" dataDxfId="76"/>
+    <tableColumn id="29" xr3:uid="{2C06F68C-8E92-465B-8C0D-BD3FCC917246}" name="C02" dataDxfId="75"/>
+    <tableColumn id="30" xr3:uid="{0FEDCD71-53EC-457A-9EC7-A83687D13362}" name="C03" dataDxfId="74"/>
+    <tableColumn id="31" xr3:uid="{0AEF8E97-667D-4579-A22C-D242B9DEC63F}" name="C04" dataDxfId="73"/>
+    <tableColumn id="32" xr3:uid="{F717C37D-8658-4BF9-95EE-91F2B7C13517}" name="C05" dataDxfId="72"/>
+    <tableColumn id="33" xr3:uid="{53808A78-E50E-4369-8212-86653B85794A}" name="C06" dataDxfId="71"/>
+    <tableColumn id="34" xr3:uid="{D28BE9E5-B112-4F27-95D9-CDF246691B3B}" name="C07" dataDxfId="70"/>
+    <tableColumn id="35" xr3:uid="{06886B9E-16BA-4354-9010-C7F2BB982880}" name="C08" dataDxfId="69"/>
+    <tableColumn id="36" xr3:uid="{F4D91C0C-C95E-41F0-AD06-8A044542A6B9}" name="C09" dataDxfId="68"/>
+    <tableColumn id="37" xr3:uid="{6946452B-116E-49A3-8EFB-F2277DEC7E84}" name="C10" dataDxfId="67"/>
+    <tableColumn id="38" xr3:uid="{111421C4-8100-4B4A-95A8-0F034F008129}" name="C11" dataDxfId="66"/>
+    <tableColumn id="39" xr3:uid="{48B69830-4D09-464F-B684-9185B86EA03D}" name="C12" dataDxfId="65"/>
+    <tableColumn id="40" xr3:uid="{C14BD90B-639C-497E-A017-DC1554415477}" name="D01" dataDxfId="64"/>
+    <tableColumn id="41" xr3:uid="{B771E09C-F5C2-4D1C-AE73-02B84B662775}" name="D02" dataDxfId="63"/>
+    <tableColumn id="42" xr3:uid="{BA75CA0D-11D9-4247-92F6-B0AB3CD565DB}" name="D03" dataDxfId="62"/>
+    <tableColumn id="43" xr3:uid="{AD457E02-66FC-4019-8DA9-CF7F77A4F7F2}" name="D04" dataDxfId="61"/>
+    <tableColumn id="44" xr3:uid="{00D778A5-3604-4A38-B067-68C88488B1A6}" name="D05" dataDxfId="60"/>
+    <tableColumn id="45" xr3:uid="{142F96AE-DF21-491E-A5C2-118DC5DE2D20}" name="D06" dataDxfId="59"/>
+    <tableColumn id="46" xr3:uid="{962FA5C7-777D-4265-9CA0-D663AA252DA5}" name="D07" dataDxfId="58"/>
+    <tableColumn id="47" xr3:uid="{600A84BA-09A0-4267-ADAE-9FE571183982}" name="D08" dataDxfId="57"/>
+    <tableColumn id="48" xr3:uid="{2B34D4E6-9CF6-414B-A9A5-65111FB06D18}" name="D09" dataDxfId="56"/>
+    <tableColumn id="49" xr3:uid="{63DB5FFC-BEC8-4713-8E2F-4C00687A713E}" name="D10" dataDxfId="55"/>
+    <tableColumn id="50" xr3:uid="{E08893A0-E42B-4508-B7F2-84D63A3E5178}" name="D11" dataDxfId="54"/>
+    <tableColumn id="51" xr3:uid="{523BA122-F027-41E9-8E79-313122A53424}" name="D12" dataDxfId="53"/>
+    <tableColumn id="52" xr3:uid="{E73E24C2-5A14-4834-ADC2-0A0137337339}" name="E01" dataDxfId="52"/>
+    <tableColumn id="53" xr3:uid="{DF5CBE87-C093-47C1-A4C1-6B3FC7787FF0}" name="E02" dataDxfId="51"/>
+    <tableColumn id="54" xr3:uid="{8F8FE0D2-59D9-4D6F-B836-83BBFF5D049F}" name="E03" dataDxfId="50"/>
+    <tableColumn id="55" xr3:uid="{68A62D9C-8D1B-4CBB-87B6-8609A9B7F675}" name="E04" dataDxfId="49"/>
+    <tableColumn id="56" xr3:uid="{77017F15-7086-4E21-BE82-DAD738E3EDB8}" name="E05" dataDxfId="48"/>
+    <tableColumn id="57" xr3:uid="{69A94C60-5141-4EDC-999D-9D6F4D4D323D}" name="E06" dataDxfId="47"/>
+    <tableColumn id="58" xr3:uid="{6E223BDD-27E2-4205-81DF-FB459C033CC9}" name="E07" dataDxfId="46"/>
+    <tableColumn id="59" xr3:uid="{C8C36847-88F5-4B05-BC7F-9F62C99744DA}" name="E08" dataDxfId="45"/>
+    <tableColumn id="60" xr3:uid="{DAB25BDD-2CB6-492D-9D05-5223679467E1}" name="E09" dataDxfId="44"/>
+    <tableColumn id="61" xr3:uid="{A85450F2-36AB-4AE8-BF04-85A11FF57698}" name="E10" dataDxfId="43"/>
+    <tableColumn id="62" xr3:uid="{B859AEF1-B0D9-435E-A306-0F9BD07DFE2E}" name="E11" dataDxfId="42"/>
+    <tableColumn id="63" xr3:uid="{9293027F-6291-42B2-9245-BDACD6466EA3}" name="E12" dataDxfId="41"/>
+    <tableColumn id="64" xr3:uid="{36E43C51-9555-4B10-9820-6A5B6B6DB197}" name="F01" dataDxfId="40"/>
+    <tableColumn id="65" xr3:uid="{0BD7BBDC-5345-40F9-9F90-90D421D7E255}" name="F02" dataDxfId="39"/>
+    <tableColumn id="66" xr3:uid="{D5A7F548-0D92-41C5-8B5C-CAE5F73AAF4E}" name="F03" dataDxfId="38"/>
+    <tableColumn id="67" xr3:uid="{75AB6D10-0680-4750-8506-C3A7C919F49F}" name="F04" dataDxfId="37"/>
+    <tableColumn id="68" xr3:uid="{6476C967-C179-4D47-BE07-EC7C0B7FDC51}" name="F05" dataDxfId="36"/>
+    <tableColumn id="69" xr3:uid="{12EFBC6A-0D7F-478C-B2EF-B019EE391CC4}" name="F06" dataDxfId="35"/>
+    <tableColumn id="70" xr3:uid="{802F16AA-EE99-44EC-A53F-BB8CA04095FD}" name="F07" dataDxfId="34"/>
+    <tableColumn id="71" xr3:uid="{5D1C41E7-D0B9-4ECB-B0F8-C7F564A4BF38}" name="F08" dataDxfId="33"/>
+    <tableColumn id="72" xr3:uid="{8A6A84E1-69FD-4715-802E-BE363778AEF4}" name="F09" dataDxfId="32"/>
+    <tableColumn id="73" xr3:uid="{90A548FD-47F4-49F7-806C-B06F291EBDC7}" name="F10" dataDxfId="31"/>
+    <tableColumn id="74" xr3:uid="{6F222FE8-3763-43FF-97F5-6F74FE71F826}" name="F11" dataDxfId="30"/>
+    <tableColumn id="75" xr3:uid="{C7CA0C4C-74F2-4AF3-AA9D-FDF70C0CF701}" name="F12" dataDxfId="29"/>
+    <tableColumn id="76" xr3:uid="{977267DD-0E79-4B78-81CC-1AB0A9201B19}" name="G01" dataDxfId="28"/>
+    <tableColumn id="77" xr3:uid="{5C550A1B-07AB-49FE-8EE6-9F0CC0300B4F}" name="G02" dataDxfId="27"/>
+    <tableColumn id="78" xr3:uid="{0B3475F2-6969-4BBA-ADF7-3A462DD16531}" name="G03" dataDxfId="26"/>
+    <tableColumn id="79" xr3:uid="{52F74A77-206D-4151-95F0-DA8042FFC96D}" name="G04" dataDxfId="25"/>
+    <tableColumn id="80" xr3:uid="{DDDDA68E-D286-4105-BB85-0B672AC68D58}" name="G05" dataDxfId="24"/>
+    <tableColumn id="81" xr3:uid="{1634B491-30E5-4847-AC0E-06FD15EE2DB1}" name="G06" dataDxfId="23"/>
+    <tableColumn id="82" xr3:uid="{12BF715F-2726-45D3-9B53-18061C649C9D}" name="G07" dataDxfId="22"/>
+    <tableColumn id="83" xr3:uid="{964B056B-3AAB-4251-B9E1-1F63E8E479CF}" name="G08" dataDxfId="21"/>
+    <tableColumn id="84" xr3:uid="{7400CE90-13CC-4A6C-9EFA-9773A303F29C}" name="G09" dataDxfId="20"/>
+    <tableColumn id="85" xr3:uid="{DDB6D751-3E5D-4214-AA8B-CF090836166A}" name="G10" dataDxfId="19"/>
+    <tableColumn id="86" xr3:uid="{AB8FA483-8F5A-42E5-B0F5-6CF2803888E0}" name="G11" dataDxfId="18"/>
+    <tableColumn id="87" xr3:uid="{E98DE225-678B-45D6-BFCD-0622975689CC}" name="G12" dataDxfId="17"/>
+    <tableColumn id="88" xr3:uid="{6A9713F1-DF28-4AAB-8E62-3A1F5A19A5C6}" name="H01" dataDxfId="16"/>
+    <tableColumn id="89" xr3:uid="{8005973D-7F15-4FE1-8854-99E53948A66E}" name="H02" dataDxfId="15"/>
+    <tableColumn id="90" xr3:uid="{ABCC8A10-D7E9-4882-B6ED-10B83BB6028A}" name="H03" dataDxfId="14"/>
+    <tableColumn id="91" xr3:uid="{DC2E85BE-2645-4C14-83D2-6EC54FBED17A}" name="H04" dataDxfId="13"/>
+    <tableColumn id="92" xr3:uid="{E09985EE-EE29-4B4F-AB8B-05DA5D382F15}" name="H05" dataDxfId="12"/>
+    <tableColumn id="93" xr3:uid="{1C8CBA69-9D59-4F56-BFEA-D7B8116EF0BC}" name="H06" dataDxfId="11"/>
+    <tableColumn id="94" xr3:uid="{7CD68F08-795E-4EDE-8B4B-AB7E48A6C839}" name="H07" dataDxfId="10"/>
+    <tableColumn id="95" xr3:uid="{620929EC-171F-4A3B-8368-04FAAA6B453B}" name="H08" dataDxfId="9"/>
+    <tableColumn id="96" xr3:uid="{C0F7A100-255A-4C90-9A98-6345F21AE497}" name="H09" dataDxfId="8"/>
+    <tableColumn id="97" xr3:uid="{F5EA022B-9BE1-479B-9388-AD7F3C81E21A}" name="H10" dataDxfId="7"/>
+    <tableColumn id="98" xr3:uid="{57D71454-B722-4BF7-B257-0379C5FDA5A3}" name="H11" dataDxfId="6"/>
+    <tableColumn id="99" xr3:uid="{0E238DD1-5C48-4D20-BAEF-A8407209C58D}" name="H12" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3317,7 +3285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DEC020-CC51-413B-9599-E8757064AC86}">
   <dimension ref="A1:CU101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AC42" sqref="AC42"/>
     </sheetView>
   </sheetViews>
@@ -33331,19 +33299,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:CU101">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH("I",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",D2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>ISNUMBER(D2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33356,10 +33324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA9079F-7676-4744-B99A-962A4D1761C2}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33368,780 +33336,1071 @@
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>104</v>
       </c>
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>105</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>106</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>107</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>108</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>109</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>110</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>111</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>112</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>113</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>114</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>115</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>117</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>118</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>120</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>121</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>124</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>125</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>126</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>127</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>128</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>129</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>130</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>132</v>
       </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>134</v>
       </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>135</v>
       </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>136</v>
       </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>137</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>138</v>
       </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>139</v>
       </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>140</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>141</v>
       </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>142</v>
       </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>143</v>
       </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>144</v>
       </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>145</v>
       </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>146</v>
       </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>147</v>
       </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>148</v>
       </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>149</v>
       </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>150</v>
       </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>151</v>
       </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>152</v>
       </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>153</v>
       </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>154</v>
       </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>155</v>
       </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>156</v>
       </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>157</v>
       </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>158</v>
       </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>159</v>
       </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>160</v>
       </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>161</v>
       </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>162</v>
       </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>163</v>
       </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>164</v>
       </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>165</v>
       </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>166</v>
       </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>167</v>
       </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>168</v>
       </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>169</v>
       </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>170</v>
       </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>171</v>
       </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>172</v>
       </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>173</v>
       </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>174</v>
       </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>175</v>
       </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>176</v>
       </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>177</v>
       </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>178</v>
       </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>179</v>
       </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>180</v>
       </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>181</v>
       </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>182</v>
       </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>183</v>
       </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>184</v>
       </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>185</v>
       </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>186</v>
       </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>187</v>
       </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>188</v>
       </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>189</v>
       </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>190</v>
       </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>191</v>
       </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>192</v>
       </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>193</v>
       </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>194</v>
       </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>195</v>
       </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>196</v>
       </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>197</v>
       </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>198</v>
       </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>199</v>
       </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>200</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
